--- a/public/assets/pages/excel/book.xlsx
+++ b/public/assets/pages/excel/book.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capecom\Documents\hdb\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7795AC1C-6DCF-479F-8D7E-93FA15BBA7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Book Listing" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Title</t>
   </si>
@@ -66,9 +60,6 @@
     <t>RFID</t>
   </si>
   <si>
-    <t>Due Period</t>
-  </si>
-  <si>
     <t>AAA123</t>
   </si>
   <si>
@@ -87,17 +78,14 @@
     <t>tamil</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>india</t>
+    <t>active</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,36 +443,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -513,27 +500,21 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
       <c r="E2">
         <v>8987898789</v>
@@ -542,22 +523,16 @@
         <v>123456</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="1">
         <v>45667</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/pages/excel/book.xlsx
+++ b/public/assets/pages/excel/book.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\Projects\pixel\hdb-admin\public\assets\pages\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5397D90-816C-4EE1-88A6-15884E355E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Book Listing" sheetId="2" r:id="rId1"/>
@@ -14,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Title</t>
   </si>
@@ -79,13 +76,22 @@
   </si>
   <si>
     <t>active</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>imprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,35 +449,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -502,8 +508,17 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -533,6 +548,15 @@
       </c>
       <c r="J2" t="s">
         <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/pages/excel/book.xlsx
+++ b/public/assets/pages/excel/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\Projects\pixel\hdb-admin\public\assets\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5397D90-816C-4EE1-88A6-15884E355E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C31B92-6B22-4721-90C7-2A0CDFFE5005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,13 +78,13 @@
     <t>active</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>collection</t>
-  </si>
-  <si>
-    <t>imprint</t>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Imprint</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
